--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,3705 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
-  <bookViews>
-    <workbookView tabRatio="600"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </sheets>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1216">
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasicOther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasicRisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RiskOther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResidualStenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollatCirc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DominantCoronary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExerciseNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InRoomUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BloodPressureLower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BloodPressureUpper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeartRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BloodOxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BorgIndex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECGs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basicinfo_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柴玉和</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：17.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999003-20190520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/05/23|||2019/05/23|2019/05/24|2019/05/24|2019/05/24||2019/05/24|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141|0|0|134|126|129|124|0|141|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85|0|0|90|84|84|83|0|85|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75|0|0|82|69|71|62|0|71|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|96|96|96|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999003-20190521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999003-20190523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/5/23|||2019/5/23|2019/5/24|2019/5/24|2019/5/24||2019/5/24|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈金山</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772015-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/15|||2018/1/15|||2018/1/19|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|96|0|0|92|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|0|0|63|0|0|67|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|105|0|0|74|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|98|0|0|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|0|0|6|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|||1|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贲大勇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772028-20180114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/16|||2018/1/16|||2018/1/22|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|98|0|0|94|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55|0|0|53|0|0|55|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83|0|0|92|0|0|66|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|94|0|0|98|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772028-20180116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孟涛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776082-20180125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/25|||2018/1/25|2018/1/25|2018/1/25|2018/1/26|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115|0|0|122|119|120|111|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|83|84|82|82|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|93|106|89|89|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|95|98|96|96|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|6|6|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1|1|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杜云军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778465-20180129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/29|||2018/1/29|||2018/1/31|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101|0|0|103|0|0|118|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|0|0|74|0|0|79|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|0|0|66|0|0|70|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|96|0|0|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘立凯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776448-20180130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/30|||2018/1/30|||2018/1/31|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148|0|0|148|0|0|158|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85|0|0|92|0|0|104|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|0|0|79|0|0|72|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|97|0|0|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01774489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张继慧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01774489-20180123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/23|||2018/1/23|||2018/1/25|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106|0|0|102|0|0|110|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|0|0|75|0|0|84|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|0|0|91|0|0|81|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|0|0|99|0|0|95|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01773313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焦守田</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01773313-20180124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/24|||2018/1/24|||2018/1/25|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|91|0|0|93|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|0|0|69|0|0|72|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|0|0|75|0|0|70|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|0|0|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">沈启家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饮酒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01776758-20180112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/24|||2018/1/24|||2018/1/26|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127|0|0|124|0|0|106|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75|0|0|74|0|0|77|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|96|0|0|66|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|0|0|96|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">洪金陆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771696-20180122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/22|||2018/1/22|||2018/1/23|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123|0|0|177|0|0|104|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74|0|0|71|0|0|65|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|0|0|77|0|0|72|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|96|0|0|96|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙宝生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李桂华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772049-20180116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/16|||2018/1/17||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131|0|0|114|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84|0|0|72|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87|0|0|83|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">毕俊波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01772857-20180117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/17|2018/1/17|2018/1/17|||2018/1/22||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122|120|123|0|0|111|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|89|88|0|0|78|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118|122|120|0|0|106|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|96|96|0|0|96|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|11|11|0|0|6|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1||||1|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01885083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">马启瑞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP 580/454/203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冠脉支架植入术后</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01885083-20180419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/19|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01765422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安桂辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01765422-20180103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/3|||2018/1/3|2018/1/4|2018/1/4|2018/1/5|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149|0|0|162|141|139|136|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|0|0|98|88|83|84|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|0|0|71|68|71|77|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|97|95|95|96|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|11|6|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">夏成礼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778479-20180203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/3|||2018/2/3|2018/2/3|2018/2/3|2018/2/5||2018/2/5|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125|0|0|123|125|123|100|0|135|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|0|0|73|71|67|68|0|67|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|0|0|70|72|73|69|0|64|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|97|97|97|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1||||||||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00726409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙云光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家族性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00726409-20171009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/10/9|||2017/10/9|2017/10/9|2017/10/9|2017/10/10||2017/10/10|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136|0|0|128|136|0|135|0|143|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|0|0|86|92|0|87|0|90|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|74|74|69|69|0|70|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|98|98|99|99|0|90|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|11|11|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||1|||||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01790822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳德玲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01790822-20180301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/1|2018/3/1|2018/3/1|2018/3/3|2018/3/3|2018/3/3||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149|148|147|157|161|161|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|84|87|87|90|87|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104|108|110|101|99|102|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|96|95|98|95|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|11|11|11|11|11|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|1|1|1||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01797461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王福林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01797461-20180315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/15|||2018/3/15|2018/3/17|2018/3/17|2018/3/19||2018/3/19|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129|0|0|129|99|165|111|0|127|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|84|73|76|78|0|81|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|0|0|93|78|76|71|0|74|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|98|98|97|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姜云财</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771472-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/15||2018/1/15|2018/1/16|2018/1/16|2018/1/16|2018/1/17||2018/1/17|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105|0|0|104|121|113|124|0|131|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|0|0|64|78|77|83|0|85|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|0|0|80|72|95|67|0|24|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|95|98|97|97|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|13|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1||1|1|1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姜云兰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778204-20180129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/29|||2018/1/29|2018/1/29|2018/1/29|2018/1/30||2018/1/30|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111|0|0|110|110|111|100|0|111|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|0|0|73|72|76|72|0|80|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|0|0|62|61|64|66|0|64|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|95|97|95|96|0|95|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01780669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孔冬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美尼尔综合征</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01780669-20170206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/6|||2018/2/6|2018/2/6|2018/2/6|2018/2/7||2018/2/7|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|0|0|124|124|123|114|0|123|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|0|0|83|86|83|81|0|87|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|0|0|58|64|64|64|0|70|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|0|0|98|98|98|97|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||||1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01767517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李维波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01767517-20180105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/5|2018/1/5|2018/1/5|2018/1/5||2018/1/8|2018/1/9||2018/1/9|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112|117|111|111|0|103|103|0|124|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|69|74|78|0|73|70|0|83|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87|89|93|88|0|76|76|0|73|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|97|96|97|0|96|96|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|11|11|11|0|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|1||1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01774940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">司国庆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01832309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郝振才</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01832309-20180529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||2018/5/29|2018/5/29|2018/5/29|2018/5/30||2018/5/30|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|117|118|118|118|0|130|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|75|74|73|71|0|74|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|65|64|67|73|0|75|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|97|96|96|96|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|11|11|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||1|1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01835188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">候振玉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01835188-20180606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/6|||2018/6/6|2018/6/6|2018/6/6|2018/6/7||2018/6/7|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139|0|0|147|152|137|157|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|0|0|83|86|82|81|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65|0|0|76|70|70|68|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|95|94|93|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01853929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋伟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01853929-20180716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/7/16|||2018/7/16|2018/7/16|2018/7/16|2018/7/17||2018/7/17|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107|0|0|111|108|108|112|0|129|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|0|0|71|73|67|78|0|79|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|78|70|75|66|0|67|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|98|99|98|98|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01779451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王德祥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01779451-20180131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/31|2018/1/31|2018/1/31|2018/1/31|2018/2/1|2018/2/1|||2018/2/2|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|98|93|92|98|101|0|0|104|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58|58|64|64|56|70|0|0|63|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|67|66|64|65|68|0|0|64|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|95|94|92|97|98|0|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|11|11|11|11|11|0|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|1|1|1|||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姜云洁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771073-20180112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/12|||2018/1/12|||2018/1/15|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117|||115|||95|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|||73|||64|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|80|0|0|73|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|95|0|0|95|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01768014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樊明科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01768014-2018/1/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/8|||2018/1/8|||2018/1/9|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126|||129|||116|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|||70|||62|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58|0|0|72|0|0|54|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|96|0|0|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01768014-20180108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01770875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张立平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01770875-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/15|||2018/1/15||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118|||120||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74|||88||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|0|0|88|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|98|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9|0|0|11|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01769544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邱本元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01769544-20180116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/16|||2018/1/16|2018/1/16|2018/1/16|2018/1/17||2018/1/17|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116|||115|120|114|122||125|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|||84|77|77|89||88|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|92|91|93|82|0|84|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|95|96|96|98|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丛喜顺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771092-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/15|||2018/1/15|||2018/1/16|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|||102|||111|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|||71|||65|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|0|0|61|0|0|60|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|96|0|0|96|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩阳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01771796-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/15|||2018/1/15|2018/1/16|2018/1/16|2018/1/17|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124|||123|127|141|152|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|||81|91|104|98|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|0|0|78|61|70|62|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|0|97|96|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|6|11|6|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01784972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张井礼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01784972-20180224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/24|||2018/2/24||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|||92||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|||67||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|88|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|95|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01849751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张万朋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP81.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饮酒20年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01849751-20180705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/7/5|||2018/7/5|2018/7/5|2018/7/5|2018/7/6||2018/7/6|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141|||144|134|128|130||133|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|||87|91|82|84||89|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|0|0|76|71|66|63|0|67|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|96|95|97|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|6|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李策</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP45.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854888-20180717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/7/17|||2018/7/17|2018/7/17|2018/7/17|2018/7/18||2018/7/18|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|||133|128|137|133||134|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|||73|75|75|74||71|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|0|0|64|64|65|62|0|65|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|96|94|96|97|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01786707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王双全</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01786707-20180223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/23|||2018/2/23||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108|||115||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|||85||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|106|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|97|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01826731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刁秀峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP78.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01826731-20180518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/18|||2018/5/18||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101|||110||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|||69||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|72|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01832041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张景辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01832041-20180530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/30|||2018/5/30|2018/5/30|2018/5/30|2018/5/31||2018/5/31|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|||90|90|92|93||113|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|||61|64|66|65||76|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|80|80|81|71|0|78|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|99|98|99|98|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01827188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万长德</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&lt;5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左肾囊肿、肝囊肿、前列腺肥大</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01827188-20180518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/18|||2018/5/18|2018/5/18|2018/5/18|2018/5/19||2018/5/19|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114|||112|108|107|111||118|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||74|80|72|68||69|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|0|0|75|75|76|79|0|85|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|96|97|96|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9|0|0|11|11|11|6|0|13|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01831827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温玉才</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP94.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01831827-20180529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/29|||2018/5/29|2018/5/29|2018/5/29|2018/5/30||2018/5/30|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102|||108|112|124|103||110|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|||78|74|75|74||72|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|68|69|70|62|0|62|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|97|97|96|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无|||无|无|无||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01810250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄有志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP1290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01810250-20180416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/16|||2018/4/16|2018/4/17|2018/4/17||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|||94|126|121||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|||60|78|66||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56|0|0|62|65|65|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|96|96|96|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|11|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1||1|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01806240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴元和</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP1270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01806240-20180409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/9|||2018/4/9|2018/4/9|2018/4/9||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|||98|101|92||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|||69|69|66||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71|0|0|73|73|64|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|97|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01791278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张微</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01791278-20180305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/5|||2018/3/5|2018/3/5|2018/3/5||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118|||115|120|114||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|||77|82|81||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|82|78|83|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|95|96|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||1|1|1||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01801322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴广学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01801322-20180329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/29|||2018/3/29|2018/3/29|2018/3/29||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110|||107|109|122||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69*|||69|70|69||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54|0|0|58|56|59|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|96|96|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01788879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张晓东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01788879-20180226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/26|||2018/2/26|2018/2/28|2018/2/28|2018/3/1||2018/3/1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128|||132|126|129|130||146|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89|||86|75|84|81||83|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71|0|0|88|68|80|67|0|72|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|0|0|98|95|93|96|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1|||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01781321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙树有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01781321-20180205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/5|2018/2/5|2018/2/5|2018/2/5||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.4|110.4|111|117.6||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|63|68|79||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|60|62|78|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|94|94|93|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|11|11|11|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|1||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔡永昌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01778609-20180203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/3|||2018/2/3||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121|||116||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||73||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|65|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|96|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李景江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&lt;5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854698-20180717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|||108|105|107|99||103|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||71|71|69|73||76|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|0|0|61|62|61|72|0|70|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|98|95|97|0|99|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01825092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨成国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&gt;172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100000100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01825092-20180622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/27|||2018/6/27|2018/6/27|2018/6/27|2018/6/28||2018/6/28|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132|||132|132|128|111||123|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|||87|85|86|79||84|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|0|0|66|74|64|62|0|61|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|0|0|99|99|99|96|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01909565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耿德武</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01909565-20180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/11/15|||2018/10/15|2018/11/15|2018/11/15||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108|||114|106|121||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|||68|76|76||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109|0|0|115|113|118|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|92|92|93|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|6|11|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01953561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：46.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01953561-20190219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||2019/2/10|2019/2/20|2019/2/20||2019/2/20|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||104|114|108||110|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||63|67|69||66|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|0|68|73|68|0|82|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|0|97|97|98|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|0|6|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10988261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李基岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&gt;282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10988261-20190426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/4/26|||2019/4/26|2019/4/27|2019/4/27||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115|||110|113|120||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|||64|60|91||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56|0|0|65|59|60|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|97|98|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01949995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴金贵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01949995-20190213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/2/13|||2019/2/13|2019/2/13|2019/2/13|2019/2/13||2019/2/13|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146|||139|134|144|148||155|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|||94|74|95|96||92|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71|0|0|74|75|79|66|0|95|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|98|96|96|99|0|95|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|6|11|11|0|13|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01871041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张明礼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&gt;181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4年前行右手截肢术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01871041-20180827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/8/27|||2018/8/27|2018/8/27|2018/8/27|2018/8/28||2018/8/28|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126|||127|132|132|146||143|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|||84|85|86|87||90|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51|0|0|60|50|58|58|0|58|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|0|0|97|97|98|98|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01888808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨晶波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：47.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01888808-20180929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/9/29|||2018/9/29|2018/9/29|2018/9/29|2018/9/30||2018/9/30|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112|||106|107|112|101||107|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|||69|66|64|60||65|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83|0|0|84|83|89|78|0|80|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|97|98|98|97|0|99|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01949966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郭忠华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01949966-20190212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/2/12|||2019/2/12|2019/2/12|2019/2/12|2019/2/13||2019/2/13|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110|||106|110|110|113||124|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||69|74|74|76||79|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|0|0|64|60|66|76|0|84|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|96|97|97|97|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01901070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐木云</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01901070-20181026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/10/26|2018/10/26|2018/10/26|2018/10/26|2018/10/26|2018/10/26|2018/10/29||2018/10/29|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106|||113|124|122|123||146|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51|||59|64|61|67||79|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|0|0|67|65|66|59|0|72|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|97|97|99|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|1|1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01881160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒋大为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">机会性饮酒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01881160-20180913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/9/13|||2018/9/13|2018/9/13|2018/9/13|2018/9/14||2018/9/14|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119|||116|120|123|129||141|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74|||76|73|76|85||92|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|0|0|77|82|82|73|0|80|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|98|95|95|99|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|13|13|6|0|13|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||||||有点难受|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01924417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邱璐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&lt;510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01924417-20181214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/12/14||2018/12/14||2018/12/14|2018/12/14|2018/12/15||2018/12/15|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112||122||113|118|120||136|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71||79||77|82|85||79|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|0|87|0|72|85|82|0|90|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|97|0|97|97|96|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|11|0|6|11|6|0|11|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1||1||1|1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01886896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">马宪伟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01886896-20180926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/9/26|||2018/9/26|2018/9/26|2018/9/26|2018/9/26||2018/9/26|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|||94|88|86|84||98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|||57|57|59|58||58|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|67|65|69|61|0|63|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|99|97|99|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01929650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廖贵江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP:125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01929650-20181226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/12/26|||2018/12/26|2018/12/26|2018/12/26|2018/12/27||2018/12/27|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123|||121|119|138|131||178|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|||91|96|85|94||112|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|0|0|80|80|93|88|0|96|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|97|97|96|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1|1||0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01891069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应世福</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01891069-20181009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/10/9|||2018/10/9|2018/10/9|2018/10/9|2018/10/10||2018/10/10|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105|||111|101|97|99||116|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||74|65|69|66||73|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|0|0|71|70|72|64|0|63|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|97|97|98|0|98|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1||1|1||1|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01869593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙淑芹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01869593-20180820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/8/20|||2018/8/20|2018/8/20|2018/8/20|2018/8/21||2018/8/21|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121|||116|123|132|142||162|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|||83|81|84|87||93|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89|0|0|97|95|101|72|0|87|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|97|99|98|99|0|97|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01861807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李凤英</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01861807-20180801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/8/1|||2018/8/1|2018/8/1|2018/8/1|2018/8/2|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|||109|102|102|103|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71|||75|76|66|76|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|0|0|95|84|100|88|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|98|97|97|97|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|13|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||||||胸闷|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|1|0|||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01920414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朱月清</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01920414-20181205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/12/5|||2018/12/5|2018/12/5|2018/12/5||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102|||106|102|110||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|||61|64|66||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|0|0|65|60|67|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|0|0|94|98|99|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01974169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01974169-20190402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/4/2|||2019/4/2||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|||80||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|||56||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|0|0|81|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||0||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01922777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唐秀丽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP34.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01922777-20181212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/12/12|||2018/12/12|2018/12/12|2018/12/12||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116|||113|126|120||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85|||78|96|97||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|85|80|83|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|93|97|92|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01911575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李淑华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01911575-20181119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/11/19|||2018/11/19|2018/11/19|2018/11/19||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|||112|108|101||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57|||62|59|68||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|0|0|66|66|74|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|96|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01902672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何凤斌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01902672-20181102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/11/2|||2018/11/2|2018/11/2|2018/11/2||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111|||107|111|119||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|||63|64|67||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|99|99|101|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|97|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01973716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李丽华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01973716-20190401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/4/1|||2019/4/1||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134|||151||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|||79||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85|0|0|93|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01884352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘宝成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP18.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01884352-20180917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01884267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魏成龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP31.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01884267-20180916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01902703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋长根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01902703-20181030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/10/30|||2018/10/30|2018/10/30|2018/10/30||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|||127|134|127||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|||79|78|72||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|94|95|93|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|95|96|96|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01898983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王占江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01898983-20181023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/10/23|||2018/10/23|2018/10/23|2018/10/23||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116|||118|110|128||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|||79|77|72||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|70|68|72|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|94|94|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01911053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙英霞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP3590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01970250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋书贤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP98.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01970250-20190323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/3/23|||2019/3/23||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|||102||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|||58||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|0|0|68|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|96|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01982682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">龚凯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP238.0/104.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01982682-20180417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/17|||2018/4/17||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|||91||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|||64||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84|0|0|74|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|94|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01978598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单学芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01978598-20180409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/9|||2018/4/9||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124|||106||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82|||79||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|0|0|92|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|96|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01978598-20180410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/10|||2018/4/10||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115|||91||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|||70||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87|0|0|95|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01978598-20180411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/11|||2018/4/11||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106|||103||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|||68||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|0|0|91|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01883410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘跃海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3年前甲状腺切除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01885454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵明贞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01885454-20180918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01955734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐海军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3年前PCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01955734-20190219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01951770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨贵江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP12.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01951770-20190212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩文涛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01457705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵振</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：79.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01457705-20180629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/29|||2018/6/29|2018/7/2|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139|||129|132|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84|||74|74|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|91|85|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|0|0|96|97|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|6|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1|1|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01791824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王世明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP:205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01791824-20180309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/9|||2018/3/9||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136|||128||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101|||94||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|0|0|71|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|90|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01799051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">崔世君</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP&gt;310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01799051-20180321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/20|||2018/3/21||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|||92||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|||61||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|0|0|87|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|95|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">崔忠民</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：2420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782867-20180209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/9|||2018/2/9||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|||105||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|||67||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|97|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|0|0|91|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01781598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋维福</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01781598-20180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/6|||2018/2/6||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110|||93||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|||70||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|77|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01800418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">靳英杰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01800418-20180321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/21|||2018/3/21||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|||96||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55|||56||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|0|0|88|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|95|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01980761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李庚田</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">针脉支架植入术后</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01980761-20190412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/4/12|||2019/4/12||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130|||136||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75|||84||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|81|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01875928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郝文荣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01959645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩宗良</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：59.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01963372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李继信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01963372-20190311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/3/11|||2019/3/11||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|||122||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||67||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|92|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|94|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01970600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">于桂芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：28.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01970600-20190325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/3/25|||2019/3/25||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111|||100||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|||58||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89|0|0|83|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|93|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01871416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01871416-20180822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/8/22|||2018/8/22|2018/8/22|2018/8/22||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118|||112|118|112||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84|||79|84|78||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83|0|0|76|79|81|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|98|98|94|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01797096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杜虹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01797096-20180315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/15|||2018/3/15||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|||88||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|0|0|86|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97|0|0|97|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01798602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘长力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01798602-20180319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||2018/3/19|2018/3/20|2018/3/20||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||103|114|105||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|||69|69|74||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|61|64|70|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|98|97|97|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|11|11|11|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01780437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">田桂杰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01780437-20180211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/11|||2018/2/11|2018/2/11|2018/2/11||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108|||104|102|111||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|||68|68|58||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|90|88|92|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|0|0|94|95|94|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙树峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01854800-20180717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/7/17|||2018/7/17|2018/7/17|2018/7/17||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116|||124|122|126||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62|||64|71|72||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|0|0|80|84|84|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|96|93|93|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01830003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仇本昌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01830003-20180525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/25|||2018/5/25|2018/5/25|2018/5/25||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117|||122|120|129||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|||88|80|82||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|0|0|75|68|80|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|97|98|98|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01788412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李纪方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01788412-20180226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/2/26|||2018/2/26||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126|||124||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|||79||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|0|0|74|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01795203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">于维国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01795203-20180312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/12|||2018/3/12||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116|||115||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74|||73||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68|0|0|78|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01779712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张永德</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01779712-20180131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/31|2018/1/31|2018/1/31|2018/2/2||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118|120|120|134||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|66|67|72||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95|93|95|104|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|94|94|90|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1|||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01765305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋玉龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01765305-20180102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/2|2018/1/2|2018/1/2|2018/1/2||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133|130|132|134||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89|89|86|91||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|68|66|76|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|97|91|96|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01839812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙艳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP55.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01839812-20180615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/15|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心前区憋闷|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01768353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王永德</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01768353-20180108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/1/8|||2018/1/8||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91|||93||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52|||52||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|0|0|85|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01794183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">马菊花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01794183-20180308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/8|||2018/3/8|2018/3/12|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131|||132|103|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|||91|82|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|0|0|93|76|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|0|0|96|98|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|0|0|11|11|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01973321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄嵋峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01973321-20180329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/3/29|||2018/3/29||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|||104||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|||67||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73|0|0|75|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|94|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|0|0|11|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01971442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李宗一</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001001000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01971442-20190323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93|||87||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|||64||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74|0|0|83|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02016070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李有富</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02016070-20190626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/27|||2019/6/27|2019/6/28|2019/6/28||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143|||143|104|105||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104|||105|71|75||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67|0|0|73|65|72|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|0|0|97|93|93|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02019174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张万里</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：137个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脑梗死</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李长龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：344/2710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190618-20190618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/19|||2019/6/19|2019/6/19|2019/6/19||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|||98|110|113||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|||67|65|67||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61|0|0|66|65|72|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98|0|0|99|99|99|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02013384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单守富</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：272 肌钙蛋白：666/331/268/145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肾病综合征</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02013384-20190614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/17|||2019/6/17||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104|||101||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63|||64||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02012330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郭春明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：114 肌钙蛋白：0.52/0.938/70.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02009288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘凤文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">慢性支气管炎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02009288-20190612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/13|||2019/6/13|2019/6/13|2019/6/13||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106|||107|104|116||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|||67|60|67||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|0|0|84|75|84|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|||1||1||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01501624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王清江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02014831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙晓明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02014831-20190618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/21|||2019/6/21||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132|||134||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|||82||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69|0|0|75|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02009814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵险峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：28.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001010000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02009814-20190608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/12|||2019/6/12|2019/6/13|||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130|||131|130|123||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86|||84|95|92||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71|0|0|71|80|93|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02012934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">于春生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：46.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02012934-20190614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|||153||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|||83||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65|0|0|69|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1||1|1||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02011005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈凯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：31.6肌钙蛋白：0.05/46.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02011005-20190611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/6/13|||2019/6/13|2019/6/14|2019/6/14||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111|||120|91|97||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|||72|61|59||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72|0|0|78|91|99|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02004332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴玉田</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：84.5/547肌钙蛋白：267/188/105/5.8/20.1/28.6/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02002493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王明志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：19.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02000080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李桂芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：866/940肌钙蛋白：6.42/28.9/37.8/24.4/9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7年前双眼青光眼手术，5年前右上肢骨折</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02000080-20190519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/5/22|||2019/5/22||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|||108||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|||69||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|0|0|85|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵贵武</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：23.6/1590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01999084-20190516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110|||109||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76|||71||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83|0|0|87|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01998684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵海英</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01998684-20190516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/5/20|||2019/5/20|2019/5/20|2019/5/20||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101|||100|101|105||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|||68|60|65||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64|0|0|68|66|70|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02019283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郭树德</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP:2190 D-二聚体：2220 肌钙蛋白：1.65/3.72/12.6/12.6/12.4/5.54/5.16/4.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02002225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李红念</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02002225-20190522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/5/28|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121|||||||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79|0|0|0|0|0|0|0|0|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01995068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张玉春</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNP：43.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脑梗死 青光眼手术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01995068-20190508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019/5/13|||2019/5/13|2019/5/14|2019/5/14||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130|||131|166|126||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66|||67|69|66||||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|0|0|73|73|71|0|0|0|</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-  </cellXfs>
-</styleSheet>
-</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
